--- a/U2净水器测试用例_1205.xlsx
+++ b/U2净水器测试用例_1205.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="715"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="715" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="1" r:id="rId1"/>
     <sheet name="信号完整性测试模块" sheetId="3" r:id="rId2"/>
     <sheet name="硬件可靠性测试模块" sheetId="4" r:id="rId3"/>
     <sheet name="EMS" sheetId="6" r:id="rId4"/>
-    <sheet name="系统测试" sheetId="7" r:id="rId5"/>
+    <sheet name="系统测试" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">信号完整性测试模块!$A$1:$I$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">系统测试!$A$1:$M$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">系统测试!$A$1:$M$16</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283">
   <si>
     <t>版本</t>
   </si>
@@ -976,25 +976,23 @@
     <t>滤芯寿命</t>
   </si>
   <si>
-    <t>一级滤芯寿命6格</t>
+    <t>一级滤芯指示灯正常状态</t>
   </si>
   <si>
     <t>滤芯寿命以时间芯片进行倒计时，计时规律：每年 12 个月，每月 30 天;
-PP滤芯（一级）（5 微米）--滤芯寿命：3 个月;
+超滤滤芯（三级）（美纤膜：0.01 微米）--滤芯寿命：12 个月;
 使用加速程序修改每年=6h，则每月=30min,每天=1min;</t>
   </si>
   <si>
     <t>1、 使一级滤芯剩余100%；
-2、 查看设备一级滤芯寿命显示；
-3、 使一级滤芯剩余99%；
-4、 查看设备一级滤芯寿命显示；
-5、 使一级滤芯剩余86%；
-6、 查看设备一级滤芯寿命显示；
-7、 使一级滤芯剩余85%；
-8、 查看设备一级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】【步骤8】一级滤芯寿命显示6格；</t>
+2、 查看设备一级滤芯指示灯；
+3、 使一级滤芯剩余50%；
+4、 查看设备一级滤芯指示灯；
+5、 使一级滤芯剩余6%；
+6、 查看设备一级滤芯指示灯；</t>
+  </si>
+  <si>
+    <t>【步骤2】【步骤4】【步骤6】一级滤芯指示灯灭；</t>
   </si>
   <si>
     <t>无</t>
@@ -1009,106 +1007,21 @@
     <t>JSQU2-002</t>
   </si>
   <si>
-    <t>一级滤芯寿命5格</t>
-  </si>
-  <si>
-    <t>1、 使一级滤芯剩余84%；
-2、 查看设备一级滤芯寿命显示；
-3、 使一级滤芯剩余71%；
-4、 查看设备一级滤芯寿命显示；
-5、 使一级滤芯剩余70%；
-6、 查看设备一级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】一级滤芯寿命显示5格；</t>
+    <t>一级滤芯指示灯提醒状态</t>
+  </si>
+  <si>
+    <t>1、 使一级滤芯剩余5%；
+2、 查看设备一级滤芯指示灯；
+3、 持续观察设备一级滤芯指示灯直至滤芯剩余0%；</t>
+  </si>
+  <si>
+    <t>【步骤2】【步骤3】【步骤6】一级滤芯指示灯为红色常亮；</t>
   </si>
   <si>
     <t>JSQU2-003</t>
   </si>
   <si>
-    <t>一级滤芯寿命4格</t>
-  </si>
-  <si>
-    <t>1、 使一级滤芯剩余69%；
-2、 查看设备一级滤芯寿命显示；
-3、 使一级滤芯剩余56%；
-4、 查看设备一级滤芯寿命显示；
-5、 使一级滤芯剩余55%；
-6、 查看设备一级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】一级滤芯寿命显示4格；</t>
-  </si>
-  <si>
-    <t>JSQU2-004</t>
-  </si>
-  <si>
-    <t>一级滤芯寿命3格</t>
-  </si>
-  <si>
-    <t>1、 使一级滤芯剩余54%；
-2、 查看设备一级滤芯寿命显示；
-3、 使一级滤芯剩余41%；
-4、 查看设备一级滤芯寿命显示；
-5、 使一级滤芯剩余40%；
-6、 查看设备一级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】一级滤芯寿命显示3格；</t>
-  </si>
-  <si>
-    <t>JSQU2-005</t>
-  </si>
-  <si>
-    <t>一级滤芯寿命2格</t>
-  </si>
-  <si>
-    <t>1、 使一级滤芯剩余39%；
-2、 查看设备一级滤芯寿命显示；
-3、 使一级滤芯剩余26%；
-4、 查看设备一级滤芯寿命显示；
-5、 使一级滤芯剩余25%；
-6、 查看设备一级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】一级滤芯寿命显示2格；</t>
-  </si>
-  <si>
-    <t>JSQU2-006</t>
-  </si>
-  <si>
-    <t>一级滤芯寿命1格</t>
-  </si>
-  <si>
-    <t>1、 使一级滤芯剩余24%；
-2、 查看设备一级滤芯寿命显示；
-3、 使一级滤芯剩余5%；
-4、 查看设备一级滤芯寿命显示；
-5、 使一级滤芯剩余1%；
-6、 查看设备一级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】一级滤芯寿命显示1格；</t>
-  </si>
-  <si>
-    <t>JSQU2-007</t>
-  </si>
-  <si>
-    <t>一级滤芯寿命0格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、 使一级滤芯剩余0%；
-2、 查看设备一级滤芯寿命显示；
-</t>
-  </si>
-  <si>
-    <t>【步骤2】一级滤芯寿命显示0格；</t>
-  </si>
-  <si>
-    <t>JSQU2-008</t>
-  </si>
-  <si>
-    <t>二级滤芯寿命6格</t>
+    <t>二级滤芯指示灯正常状态</t>
   </si>
   <si>
     <t>滤芯寿命以时间芯片进行倒计时，计时规律：每年 12 个月，每月 30 天;
@@ -1117,244 +1030,65 @@
   </si>
   <si>
     <t>1、 使二级滤芯剩余100%；
-2、 查看设备二级滤芯寿命显示；
-3、 使二级滤芯剩余99%；
-4、 查看设备二级滤芯寿命显示；
-5、 使二级滤芯剩余86%；
-6、 查看设备二级滤芯寿命显示；
-7、 使二级滤芯剩余85%；
-8、 查看设备二级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】【步骤8】二级滤芯寿命显示6格；</t>
-  </si>
-  <si>
-    <t>JSQU2-009</t>
-  </si>
-  <si>
-    <t>二级滤芯寿命5格</t>
-  </si>
-  <si>
-    <t>1、 使二级滤芯剩余84%；
-2、 查看设备二级滤芯寿命显示；
-3、 使二级滤芯剩余71%；
-4、 查看设备二级滤芯寿命显示；
-5、 使二级滤芯剩余70%；
-6、 查看设备二级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】二级滤芯寿命显示5格；</t>
-  </si>
-  <si>
-    <t>JSQU2-010</t>
-  </si>
-  <si>
-    <t>二级滤芯寿命4格</t>
-  </si>
-  <si>
-    <t>1、 使二级滤芯剩余69%；
-2、 查看设备二级滤芯寿命显示；
-3、 使二级滤芯剩余56%；
-4、 查看设备二级滤芯寿命显示；
-5、 使二级滤芯剩余55%；
-6、 查看设备二级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】二级滤芯寿命显示4格；</t>
-  </si>
-  <si>
-    <t>JSQU2-011</t>
-  </si>
-  <si>
-    <t>二级滤芯寿命3格</t>
-  </si>
-  <si>
-    <t>1、 使二级滤芯剩余54%；
-2、 查看设备二级滤芯寿命显示；
-3、 使二级滤芯剩余41%；
-4、 查看设备二级滤芯寿命显示；
-5、 使二级滤芯剩余40%；
-6、 查看设备二级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】二级滤芯寿命显示3格；</t>
-  </si>
-  <si>
-    <t>JSQU2-012</t>
-  </si>
-  <si>
-    <t>二级滤芯寿命2格</t>
-  </si>
-  <si>
-    <t>1、 使二级滤芯剩余39%；
-2、 查看设备二级滤芯寿命显示；
-3、 使二级滤芯剩余26%；
-4、 查看设备二级滤芯寿命显示；
-5、 使二级滤芯剩余25%；
-6、 查看设备二级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】二级滤芯寿命显示2格；</t>
-  </si>
-  <si>
-    <t>JSQU2-013</t>
-  </si>
-  <si>
-    <t>二级滤芯寿命1格</t>
-  </si>
-  <si>
-    <t>1、 使二级滤芯剩余24%；
-2、 查看设备二级滤芯寿命显示；
-3、 使二级滤芯剩余5%；
-4、 查看设备二级滤芯寿命显示；
-5、 使二级滤芯剩余1%；
-6、 查看设备二级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】二级滤芯寿命显示1格；</t>
-  </si>
-  <si>
-    <t>JSQU2-014</t>
-  </si>
-  <si>
-    <t>二级滤芯寿命0格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、 使二级滤芯剩余0%；
-2、 查看设备二级滤芯寿命显示；
-</t>
-  </si>
-  <si>
-    <t>【步骤2】二级滤芯寿命显示0格；</t>
-  </si>
-  <si>
-    <t>JSQU2-015</t>
-  </si>
-  <si>
-    <t>三级滤芯寿命6格</t>
-  </si>
-  <si>
-    <t>滤芯寿命以时间芯片进行倒计时，计时规律：每年 12 个月，每月 30 天;
-超滤滤芯（三级）（美纤膜：0.01 微米）--滤芯寿命：12 个月;
-使用加速程序修改每年=6h，则每月=30min,每天=1min;</t>
+2、 查看设备二级滤芯指示灯；
+3、 使二级滤芯剩余50%；
+4、 查看设备二级滤芯指示灯；
+5、 使二级滤芯剩余6%；
+6、 查看设备二级滤芯指示灯；</t>
+  </si>
+  <si>
+    <t>【步骤2】【步骤4】【步骤6】二级滤芯指示灯灭；</t>
+  </si>
+  <si>
+    <t>JSQU2-004</t>
+  </si>
+  <si>
+    <t>二级滤芯指示灯提醒状态</t>
+  </si>
+  <si>
+    <t>1、 使二级滤芯剩余5%；
+2、 查看设备二级滤芯指示灯；
+3、 持续观察设备二级滤芯指示灯直至滤芯剩余0%；</t>
+  </si>
+  <si>
+    <t>【步骤2】【步骤3】【步骤6】二级滤芯指示灯为黄色常亮；</t>
+  </si>
+  <si>
+    <t>JSQU2-005</t>
+  </si>
+  <si>
+    <t>三级滤芯指示灯正常状态</t>
   </si>
   <si>
     <t>1、 使三级滤芯剩余100%；
-2、 查看设备三级滤芯寿命显示；
-3、 使三级滤芯剩余99%；
-4、 查看设备三级滤芯寿命显示；
-5、 使三级滤芯剩余86%；
-6、 查看设备三级滤芯寿命显示；
-7、 使三级滤芯剩余85%；
-8、 查看设备三级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】【步骤8】三级滤芯寿命显示6格；</t>
-  </si>
-  <si>
-    <t>JSQU2-016</t>
-  </si>
-  <si>
-    <t>三级滤芯寿命5格</t>
-  </si>
-  <si>
-    <t>1、 使三级滤芯剩余84%；
-2、 查看设备三级滤芯寿命显示；
-3、 使三级滤芯剩余71%；
-4、 查看设备三级滤芯寿命显示；
-5、 使三级滤芯剩余70%；
-6、 查看设备三级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】三级滤芯寿命显示5格；</t>
-  </si>
-  <si>
-    <t>JSQU2-017</t>
-  </si>
-  <si>
-    <t>三级滤芯寿命4格</t>
-  </si>
-  <si>
-    <t>1、 使三级滤芯剩余69%；
-2、 查看设备三级滤芯寿命显示；
-3、 使三级滤芯剩余56%；
-4、 查看设备三级滤芯寿命显示；
-5、 使三级滤芯剩余55%；
-6、 查看设备三级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】三级滤芯寿命显示4格；</t>
-  </si>
-  <si>
-    <t>JSQU2-018</t>
-  </si>
-  <si>
-    <t>三级滤芯寿命3格</t>
-  </si>
-  <si>
-    <t>1、 使三级滤芯剩余54%；
-2、 查看设备三级滤芯寿命显示；
-3、 使三级滤芯剩余41%；
-4、 查看设备三级滤芯寿命显示；
-5、 使三级滤芯剩余40%；
-6、 查看设备三级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】三级滤芯寿命显示3格；</t>
-  </si>
-  <si>
-    <t>JSQU2-019</t>
-  </si>
-  <si>
-    <t>三级滤芯寿命2格</t>
-  </si>
-  <si>
-    <t>1、 使三级滤芯剩余39%；
-2、 查看设备三级滤芯寿命显示；
-3、 使三级滤芯剩余26%；
-4、 查看设备三级滤芯寿命显示；
-5、 使三级滤芯剩余25%；
-6、 查看设备三级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】三级滤芯寿命显示2格；</t>
-  </si>
-  <si>
-    <t>JSQU2-020</t>
-  </si>
-  <si>
-    <t>三级滤芯寿命1格</t>
-  </si>
-  <si>
-    <t>1、 使三级滤芯剩余24%；
-2、 查看设备三级滤芯寿命显示；
-3、 使三级滤芯剩余5%；
-4、 查看设备三级滤芯寿命显示；
-5、 使三级滤芯剩余1%；
-6、 查看设备三级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】三级滤芯寿命显示1格；</t>
-  </si>
-  <si>
-    <t>JSQU2-021</t>
-  </si>
-  <si>
-    <t>三级滤芯寿命0格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、 使三级滤芯剩余0%；
-2、 查看设备三级滤芯寿命显示；
-</t>
-  </si>
-  <si>
-    <t>【步骤2】三级滤芯寿命显示0格；</t>
-  </si>
-  <si>
-    <t>JSQU2-022</t>
-  </si>
-  <si>
-    <t>四级滤芯寿命6格</t>
+2、 查看设备三级滤芯指示灯；
+3、 使三级滤芯剩余50%；
+4、  查看设备三级滤芯指示灯；
+5、 使三级滤芯剩余6%；
+6、  查看设备三级滤芯指示灯；</t>
+  </si>
+  <si>
+    <t>【步骤2】【步骤4】【步骤6】三级滤芯指示灯灭；</t>
+  </si>
+  <si>
+    <t>JSQU2-006</t>
+  </si>
+  <si>
+    <t>三级滤芯指示灯提醒状态</t>
+  </si>
+  <si>
+    <t>1、 使三级滤芯剩余5%；
+2、 查看设备三级滤芯指示灯；
+3、 持续观察设备三级滤芯指示灯直至滤芯剩余0%；</t>
+  </si>
+  <si>
+    <t>【步骤2】【步骤3】【步骤6】三级滤芯指示灯为绿色常亮；</t>
+  </si>
+  <si>
+    <t>JSQU2-007</t>
+  </si>
+  <si>
+    <t>四级滤芯指示灯正常状态</t>
   </si>
   <si>
     <t>滤芯寿命以时间芯片进行倒计时，计时规律：每年 12 个月，每月 30 天;
@@ -1363,228 +1097,17 @@
   </si>
   <si>
     <t>1、 使四级滤芯剩余100%；
-2、 查看设备四级滤芯寿命显示；
-3、 使四级滤芯剩余99%；
-4、 查看设备四级滤芯寿命显示；
-5、 使四级滤芯剩余86%；
-6、 查看设备四级滤芯寿命显示；
-7、 使四级滤芯剩余85%；
-8、 查看设备四级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】【步骤8】四级滤芯寿命显示6格；</t>
-  </si>
-  <si>
-    <t>JSQU2-023</t>
-  </si>
-  <si>
-    <t>四级滤芯寿命5格</t>
-  </si>
-  <si>
-    <t>1、 使四级滤芯剩余84%；
-2、 查看设备四级滤芯寿命显示；
-3、 使四级滤芯剩余71%；
-4、 查看设备四级滤芯寿命显示；
-5、 使四级滤芯剩余70%；
-6、 查看设备四级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】四级滤芯寿命显示5格；</t>
-  </si>
-  <si>
-    <t>JSQU2-024</t>
-  </si>
-  <si>
-    <t>四级滤芯寿命4格</t>
-  </si>
-  <si>
-    <t>1、 使四级滤芯剩余69%；
-2、 查看设备四级滤芯寿命显示；
-3、 使四级滤芯剩余56%；
-4、 查看设备四级滤芯寿命显示；
-5、 使四级滤芯剩余55%；
-6、 查看设备四级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】四级滤芯寿命显示4格；</t>
-  </si>
-  <si>
-    <t>JSQU2-025</t>
-  </si>
-  <si>
-    <t>四级滤芯寿命3格</t>
-  </si>
-  <si>
-    <t>1、 使四级滤芯剩余54%；
-2、 查看设备四级滤芯寿命显示；
-3、 使四级滤芯剩余41%；
-4、 查看设备四级滤芯寿命显示；
-5、 使四级滤芯剩余40%；
-6、 查看设备四级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】四级滤芯寿命显示3格；</t>
-  </si>
-  <si>
-    <t>JSQU2-026</t>
-  </si>
-  <si>
-    <t>四级滤芯寿命2格</t>
-  </si>
-  <si>
-    <t>1、 使四级滤芯剩余39%；
-2、 查看设备四级滤芯寿命显示；
-3、 使四级滤芯剩余26%；
-4、 查看设备四级滤芯寿命显示；
-5、 使四级滤芯剩余25%；
-6、 查看设备四级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】四级滤芯寿命显示2格；</t>
-  </si>
-  <si>
-    <t>JSQU2-027</t>
-  </si>
-  <si>
-    <t>四级滤芯寿命1格</t>
-  </si>
-  <si>
-    <t>1、 使四级滤芯剩余24%；
-2、 查看设备四级滤芯寿命显示；
-3、 使四级滤芯剩余5%；
-4、 查看设备四级滤芯寿命显示；
-5、 使四级滤芯剩余1%；
-6、 查看设备四级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】四级滤芯寿命显示1格；</t>
-  </si>
-  <si>
-    <t>JSQU2-028</t>
-  </si>
-  <si>
-    <t>四级滤芯寿命0格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、 使四级滤芯剩余0%；
-2、 查看设备四级滤芯寿命显示；
-</t>
-  </si>
-  <si>
-    <t>【步骤2】四级滤芯寿命显示0格；</t>
-  </si>
-  <si>
-    <t>JSQU2-029</t>
-  </si>
-  <si>
-    <t>一级滤芯指示灯正常状态</t>
-  </si>
-  <si>
-    <t>1、 使一级滤芯剩余100%；
-2、 查看设备一级滤芯指示灯；
-3、 使一级滤芯剩余50%；
-4、 查看设备一级滤芯寿命显示；
-5、 使一级滤芯剩余6%；
-6、 查看设备一级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】一级滤芯指示灯灭；</t>
-  </si>
-  <si>
-    <t>JSQU2-030</t>
-  </si>
-  <si>
-    <t>一级滤芯指示灯提醒状态</t>
-  </si>
-  <si>
-    <t>1、 使一级滤芯剩余5%；
-2、 查看设备一级滤芯指示灯；
-3、 持续观察设备一级滤芯指示灯直至滤芯剩余0%；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤3】【步骤6】一级滤芯指示灯为红色常亮；</t>
-  </si>
-  <si>
-    <t>JSQU2-031</t>
-  </si>
-  <si>
-    <t>二级滤芯指示灯正常状态</t>
-  </si>
-  <si>
-    <t>1、 使二级滤芯剩余100%；
-2、 查看设备二级滤芯指示灯；
-3、 使二级滤芯剩余50%；
-4、 查看设备二级滤芯寿命显示；
-5、 使二级滤芯剩余6%；
-6、 查看设备二级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】二级滤芯指示灯灭；</t>
-  </si>
-  <si>
-    <t>JSQU2-032</t>
-  </si>
-  <si>
-    <t>二级滤芯指示灯提醒状态</t>
-  </si>
-  <si>
-    <t>1、 使二级滤芯剩余5%；
-2、 查看设备二级滤芯指示灯；
-3、 持续观察设备二级滤芯指示灯直至滤芯剩余0%；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤3】【步骤6】二级滤芯指示灯为黄色常亮；</t>
-  </si>
-  <si>
-    <t>JSQU2-033</t>
-  </si>
-  <si>
-    <t>三级滤芯指示灯正常状态</t>
-  </si>
-  <si>
-    <t>1、 使三级滤芯剩余100%；
-2、 查看设备三级滤芯指示灯；
-3、 使三级滤芯剩余50%；
-4、 查看设备三级滤芯寿命显示；
-5、 使三级滤芯剩余6%；
-6、 查看设备三级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤4】【步骤6】三级滤芯指示灯灭；</t>
-  </si>
-  <si>
-    <t>JSQU2-034</t>
-  </si>
-  <si>
-    <t>三级滤芯指示灯提醒状态</t>
-  </si>
-  <si>
-    <t>1、 使三级滤芯剩余5%；
-2、 查看设备三级滤芯指示灯；
-3、 持续观察设备三级滤芯指示灯直至滤芯剩余0%；</t>
-  </si>
-  <si>
-    <t>【步骤2】【步骤3】【步骤6】三级滤芯指示灯为绿色常亮；</t>
-  </si>
-  <si>
-    <t>JSQU2-035</t>
-  </si>
-  <si>
-    <t>四级滤芯指示灯正常状态</t>
-  </si>
-  <si>
-    <t>1、 使四级滤芯剩余100%；
 2、 查看设备四级滤芯指示灯；
 3、 使四级滤芯剩余50%；
-4、 查看设备四级滤芯寿命显示；
+4、 查看设备四级滤芯指示灯；
 5、 使四级滤芯剩余6%；
-6、 查看设备四级滤芯寿命显示；</t>
+6、查看设备四级滤芯指示灯；</t>
   </si>
   <si>
     <t>【步骤2】【步骤4】【步骤6】四级滤芯指示灯灭；</t>
   </si>
   <si>
-    <t>JSQU2-036</t>
+    <t>JSQU2-008</t>
   </si>
   <si>
     <t>四级滤芯指示灯提醒状态</t>
@@ -1598,7 +1121,7 @@
     <t>【步骤2】【步骤3】【步骤6】四级滤芯指示灯为蓝色常亮；</t>
   </si>
   <si>
-    <t>JSQU2-037</t>
+    <t>JSQU2-009</t>
   </si>
   <si>
     <t>滤芯复位</t>
@@ -1607,61 +1130,53 @@
     <t>一级滤芯复位</t>
   </si>
   <si>
-    <t>1、 单击按键选择一级滤芯，再长按按键 2S；
-2、 查看设备一级滤芯寿命指示灯；
-3、 查看设备一级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】一级滤芯指示灯常亮 5S 后再灭；
-【步骤3】一级滤芯寿命显示6格；</t>
-  </si>
-  <si>
-    <t>JSQU2-038</t>
+    <t>1、 按键选择一级滤芯，再长按按键 2S；
+2、 查看设备一级滤芯寿命指示灯；</t>
+  </si>
+  <si>
+    <t>【步骤2】一级滤芯指示灯常亮 5S 后再灭；</t>
+  </si>
+  <si>
+    <t>JSQU2-010</t>
   </si>
   <si>
     <t>二级滤芯复位</t>
   </si>
   <si>
-    <t>1、 单击按键选择二级滤芯，再长按按键 2S；
-2、 查看设备二级滤芯寿命指示灯；
-3、 查看设备二级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】二级滤芯指示灯常亮 5S 后再灭；
-【步骤3】二级滤芯寿命显示6格；</t>
-  </si>
-  <si>
-    <t>JSQU2-039</t>
+    <t>1、 按键选择二级滤芯，再长按按键 2S；
+2、 查看设备二级滤芯寿命指示灯；</t>
+  </si>
+  <si>
+    <t>【步骤2】二级滤芯指示灯常亮 5S 后再灭；</t>
+  </si>
+  <si>
+    <t>JSQU2-011</t>
   </si>
   <si>
     <t>三级滤芯复位</t>
   </si>
   <si>
-    <t>1、 单击按键选择三级滤芯，再长按按键 2S；
-2、 查看设备三级滤芯寿命指示灯；
-3、 查看设备三级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】三级滤芯指示灯常亮 5S 后再灭；
-【步骤3】三级滤芯寿命显示6格；</t>
-  </si>
-  <si>
-    <t>JSQU2-040</t>
+    <t>1、 按键选择三级滤芯，再长按按键 2S；
+2、 查看设备三级滤芯寿命指示灯；</t>
+  </si>
+  <si>
+    <t>【步骤2】三级滤芯指示灯常亮 5S 后再灭；</t>
+  </si>
+  <si>
+    <t>JSQU2-012</t>
   </si>
   <si>
     <t>四级滤芯复位</t>
   </si>
   <si>
-    <t>1、 单击按键选择四级滤芯，再长按按键 2S；
-2、 查看设备四级滤芯寿命指示灯；
-3、 查看设备四级滤芯寿命显示；</t>
-  </si>
-  <si>
-    <t>【步骤2】四级滤芯指示灯常亮 5S 后再灭；
-【步骤3】四级滤芯寿命显示6格；</t>
-  </si>
-  <si>
-    <t>JSQU2-041</t>
+    <t>1、 按键选择四级滤芯，再长按按键 2S；
+2、 查看设备四级滤芯寿命指示灯；</t>
+  </si>
+  <si>
+    <t>【步骤2】四级滤芯指示灯常亮 5S 后再灭；</t>
+  </si>
+  <si>
+    <t>JSQU2-013</t>
   </si>
   <si>
     <t>电源模块</t>
@@ -1675,15 +1190,15 @@
   <si>
     <t>1、查看设备指示灯；
 2、观察设备蜂鸣器；
-3、测试设备各按键功能；</t>
+3、测试设备按键功能；</t>
   </si>
   <si>
     <t>【步骤1】4个指示灯无频闪现象；
 【步骤2】蜂鸣器无间隔性蜂鸣现象；
-【步骤3】各按键功能正常；</t>
-  </si>
-  <si>
-    <t>JSQU2-042</t>
+【步骤3】按键功能正常；</t>
+  </si>
+  <si>
+    <t>JSQU2-014</t>
   </si>
   <si>
     <t>低电量提醒</t>
@@ -1701,7 +1216,7 @@
 【步骤3】间隔 1 小时后重复步骤1和2现象，依次类推；</t>
   </si>
   <si>
-    <t>JSQU2-043</t>
+    <t>JSQU2-015</t>
   </si>
   <si>
     <t>低电量电池更换</t>
@@ -1710,11 +1225,13 @@
     <t xml:space="preserve">1、查看设备现象；
 2、更换电池，装入电量大于5%的两节7号电池；
 3、观察设备现象；
+4、测试设备按键功能；
 </t>
   </si>
   <si>
     <t>【步骤1】四个指示灯同时频闪 10S，同时蜂鸣器间隔性响起，10S 后灯灭且蜂鸣器停；
-【步骤3】4个指示灯无频闪现象，蜂鸣器无间隔性蜂鸣现象；</t>
+【步骤3】4个指示灯无频闪现象，蜂鸣器无间隔性蜂鸣现象；
+【步骤4】按键功能正常；</t>
   </si>
 </sst>
 </file>
@@ -1722,14 +1239,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="m\/d\/yyyy"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m\/d\/yyyy"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1745,11 +1262,6 @@
       <sz val="12"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1807,11 +1319,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
@@ -1820,13 +1327,11 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1834,7 +1339,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1856,13 +1360,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1872,9 +1386,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1886,32 +1407,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1929,47 +1469,21 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1983,76 +1497,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2063,68 +1508,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2149,13 +1539,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2167,7 +1563,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2179,55 +1599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2239,7 +1611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2257,19 +1635,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2329,6 +1719,30 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -2346,23 +1760,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2401,15 +1800,6 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
         <color indexed="22"/>
       </bottom>
       <diagonal/>
@@ -2429,8 +1819,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2439,548 +1829,548 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2993,183 +2383,180 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="107" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="108" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="107" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="108" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="107" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="108" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="107" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="108" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="185">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
     <cellStyle name="输出 3" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="4"/>
     <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="货币" xfId="6" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="计算 2" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="9"/>
     <cellStyle name="差" xfId="10" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="11" builtinId="3"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="12"/>
@@ -3178,14 +2565,14 @@
     <cellStyle name="百分比" xfId="15" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="16"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="18"/>
-    <cellStyle name="注释" xfId="19" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
+    <cellStyle name="注释" xfId="18" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="19"/>
+    <cellStyle name="标题 4" xfId="20" builtinId="19"/>
     <cellStyle name="解释性文本 2 2" xfId="21"/>
-    <cellStyle name="标题 4" xfId="22" builtinId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
     <cellStyle name="警告文本" xfId="23" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="24"/>
-    <cellStyle name="标题" xfId="25" builtinId="15"/>
+    <cellStyle name="标题" xfId="24" builtinId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="25"/>
     <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
     <cellStyle name="标题 1" xfId="27" builtinId="16"/>
     <cellStyle name="标题 2" xfId="28" builtinId="17"/>
@@ -3194,9 +2581,9 @@
     <cellStyle name="60% - 强调文字颜色 4" xfId="31" builtinId="44"/>
     <cellStyle name="输出" xfId="32" builtinId="21"/>
     <cellStyle name="计算" xfId="33" builtinId="22"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="34"/>
+    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="35"/>
-    <cellStyle name="检查单元格" xfId="36" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="36"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="37" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="38" builtinId="33"/>
     <cellStyle name="链接单元格" xfId="39" builtinId="24"/>
@@ -3207,36 +2594,36 @@
     <cellStyle name="20% - 强调文字颜色 3 3" xfId="44"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="45" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="46" builtinId="29"/>
-    <cellStyle name="链接单元格 3" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="48" builtinId="30"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="47" builtinId="30"/>
+    <cellStyle name="链接单元格 3" xfId="48"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="50"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="51" builtinId="34"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="50" builtinId="34"/>
+    <cellStyle name="输出 2" xfId="51"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="52" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="53" builtinId="37"/>
     <cellStyle name="常规 3 2" xfId="54"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="55"/>
     <cellStyle name="强调文字颜色 4" xfId="56" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="58" builtinId="42"/>
-    <cellStyle name="计算 3" xfId="59"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="60" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="61" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="62" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="63" builtinId="48"/>
-    <cellStyle name="RowLevel_" xfId="64"/>
-    <cellStyle name="强调文字颜色 6" xfId="65" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="66"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="67" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="68" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="57" builtinId="42"/>
+    <cellStyle name="计算 3" xfId="58"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="59" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="60" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="61" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="62" builtinId="48"/>
+    <cellStyle name="RowLevel_" xfId="63"/>
+    <cellStyle name="强调文字颜色 6" xfId="64" builtinId="49"/>
+    <cellStyle name="适中 2" xfId="65"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="66" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="67" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="68"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="69"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="70"/>
-    <cellStyle name="输出 2 2" xfId="71"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="72"/>
-    <cellStyle name="常规 3" xfId="73"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="74"/>
-    <cellStyle name="常规 4" xfId="75"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="76"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="71"/>
+    <cellStyle name="输出 2 2" xfId="72"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="73"/>
+    <cellStyle name="常规 3" xfId="74"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="75"/>
+    <cellStyle name="常规 4" xfId="76"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="77"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="78"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="79"/>
@@ -3248,27 +2635,27 @@
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="85"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="86"/>
     <cellStyle name="40% - 强调文字颜色 2 3" xfId="87"/>
-    <cellStyle name="计算 2 2" xfId="88"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="88"/>
+    <cellStyle name="计算 2 2" xfId="89"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="90"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="91"/>
-    <cellStyle name="检查单元格 2" xfId="92"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="93"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="92"/>
+    <cellStyle name="检查单元格 2" xfId="93"/>
     <cellStyle name="40% - 强调文字颜色 4 3" xfId="94"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="95"/>
-    <cellStyle name="60% - 强调文字颜色 4 3" xfId="96"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="97"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="96"/>
+    <cellStyle name="60% - 强调文字颜色 4 3" xfId="97"/>
     <cellStyle name="40% - 强调文字颜色 5 3" xfId="98"/>
-    <cellStyle name="适中 2 2" xfId="99"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="100"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="99"/>
+    <cellStyle name="适中 2 2" xfId="100"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="101"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="102"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="103"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="102"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="103"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="104"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="105"/>
     <cellStyle name="60% - 强调文字颜色 1 3" xfId="106"/>
-    <cellStyle name="常规 5" xfId="107"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="108"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="107"/>
+    <cellStyle name="常规 5" xfId="108"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="109"/>
     <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="110"/>
     <cellStyle name="60% - 强调文字颜色 3 3" xfId="111"/>
@@ -3294,8 +2681,8 @@
     <cellStyle name="标题 3 3" xfId="131"/>
     <cellStyle name="标题 4 2" xfId="132"/>
     <cellStyle name="标题 4 2 2" xfId="133"/>
-    <cellStyle name="汇总 2 2" xfId="134"/>
-    <cellStyle name="标题 4 3" xfId="135"/>
+    <cellStyle name="标题 4 3" xfId="134"/>
+    <cellStyle name="汇总 2 2" xfId="135"/>
     <cellStyle name="标题 5" xfId="136"/>
     <cellStyle name="标题 5 2" xfId="137"/>
     <cellStyle name="标题 6" xfId="138"/>
@@ -3887,7 +3274,7 @@
   <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3897,99 +3284,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="45"/>
+      <c r="A1" s="44"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="57" t="s">
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="56" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1" spans="2:10">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="50">
         <v>43438</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="50">
         <v>43439</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="53"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="50"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="50"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="58"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4018,652 +3405,652 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="38"/>
-    <col min="2" max="2" width="15.625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="35" style="38" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="38" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="38" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="38" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="33.25" style="38" customWidth="1"/>
-    <col min="10" max="12" width="9" style="38" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="13.875" style="37"/>
+    <col min="2" max="2" width="15.625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="37" customWidth="1"/>
+    <col min="4" max="4" width="35" style="37" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="37" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="37" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="37" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="33.25" style="37" customWidth="1"/>
+    <col min="10" max="12" width="9" style="37" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" s="36" customFormat="1" ht="24.75" customHeight="1" spans="1:9">
-      <c r="A1" s="40" t="s">
+    <row r="1" s="35" customFormat="1" ht="24.75" customHeight="1" spans="1:9">
+      <c r="A1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A2" s="41" t="s">
+    <row r="2" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
-    <row r="3" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A3" s="41" t="s">
+    <row r="3" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A3" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
     </row>
-    <row r="4" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A4" s="41" t="s">
+    <row r="4" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
     </row>
-    <row r="5" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A5" s="41" t="s">
+    <row r="5" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
     </row>
-    <row r="6" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A6" s="41" t="s">
+    <row r="6" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A6" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
     </row>
-    <row r="7" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A7" s="41" t="s">
+    <row r="7" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A7" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
     </row>
-    <row r="8" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A8" s="41" t="s">
+    <row r="8" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A8" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
     </row>
-    <row r="9" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A9" s="41" t="s">
+    <row r="9" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A9" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
     </row>
-    <row r="10" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A10" s="41" t="s">
+    <row r="10" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A10" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
     </row>
-    <row r="11" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A11" s="41" t="s">
+    <row r="11" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A11" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
     </row>
-    <row r="12" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A12" s="41" t="s">
+    <row r="12" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A12" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
     </row>
-    <row r="13" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A13" s="41" t="s">
+    <row r="13" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A13" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
     </row>
-    <row r="14" s="38" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A14" s="41" t="s">
+    <row r="14" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A14" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="43" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A15" s="41" t="s">
+    <row r="15" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A15" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
     </row>
-    <row r="16" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A16" s="41" t="s">
+    <row r="16" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A16" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
     </row>
-    <row r="17" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A17" s="41" t="s">
+    <row r="17" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A17" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
     </row>
-    <row r="18" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A18" s="41" t="s">
+    <row r="18" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A18" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
     </row>
-    <row r="19" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A19" s="41" t="s">
+    <row r="19" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A19" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
     </row>
-    <row r="20" s="37" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
-      <c r="A20" s="41" t="s">
+    <row r="20" s="36" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A20" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4688,73 +4075,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="14.625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="27" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="27" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="29.75" style="27" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="27" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="33.25" style="27" customWidth="1"/>
-    <col min="10" max="232" width="9" style="28" customWidth="1"/>
-    <col min="233" max="16384" width="9" style="29"/>
+    <col min="1" max="2" width="14.625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="26" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="26" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="29.75" style="26" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="26" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="33.25" style="26" customWidth="1"/>
+    <col min="10" max="232" width="9" style="27" customWidth="1"/>
+    <col min="233" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>121</v>
       </c>
       <c r="J2" s="25"/>
@@ -4982,31 +4369,31 @@
       <c r="HX2" s="25"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="30" t="s">
         <v>121</v>
       </c>
       <c r="J3" s="25"/>
@@ -5234,31 +4621,31 @@
       <c r="HX3" s="25"/>
     </row>
     <row r="4" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="30" t="s">
         <v>121</v>
       </c>
       <c r="J4" s="25"/>
@@ -5486,31 +4873,31 @@
       <c r="HX4" s="25"/>
     </row>
     <row r="5" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="30" t="s">
         <v>121</v>
       </c>
       <c r="J5" s="25"/>
@@ -5738,31 +5125,31 @@
       <c r="HX5" s="25"/>
     </row>
     <row r="6" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="30" t="s">
         <v>121</v>
       </c>
       <c r="J6" s="25"/>
@@ -5990,31 +5377,31 @@
       <c r="HX6" s="25"/>
     </row>
     <row r="7" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="30" t="s">
         <v>121</v>
       </c>
       <c r="J7" s="25"/>
@@ -6242,31 +5629,31 @@
       <c r="HX7" s="25"/>
     </row>
     <row r="8" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="30" t="s">
         <v>142</v>
       </c>
       <c r="J8" s="25"/>
@@ -6494,31 +5881,31 @@
       <c r="HX8" s="25"/>
     </row>
     <row r="9" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="30" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="25"/>
@@ -6746,31 +6133,31 @@
       <c r="HX9" s="25"/>
     </row>
     <row r="10" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="30" t="s">
         <v>142</v>
       </c>
       <c r="J10" s="25"/>
@@ -6998,31 +6385,31 @@
       <c r="HX10" s="25"/>
     </row>
     <row r="11" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="30" t="s">
         <v>149</v>
       </c>
       <c r="J11" s="25"/>
@@ -7250,31 +6637,31 @@
       <c r="HX11" s="25"/>
     </row>
     <row r="12" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="30" t="s">
         <v>154</v>
       </c>
       <c r="J12" s="25"/>
@@ -7502,31 +6889,31 @@
       <c r="HX12" s="25"/>
     </row>
     <row r="13" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="30" t="s">
         <v>154</v>
       </c>
       <c r="J13" s="25"/>
@@ -7754,31 +7141,31 @@
       <c r="HX13" s="25"/>
     </row>
     <row r="14" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="30" t="s">
         <v>161</v>
       </c>
       <c r="J14" s="25"/>
@@ -8006,31 +7393,31 @@
       <c r="HX14" s="25"/>
     </row>
     <row r="15" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="30" t="s">
         <v>161</v>
       </c>
       <c r="J15" s="25"/>
@@ -8258,31 +7645,31 @@
       <c r="HX15" s="25"/>
     </row>
     <row r="16" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="30" t="s">
         <v>167</v>
       </c>
       <c r="J16" s="25"/>
@@ -8510,60 +7897,60 @@
       <c r="HX16" s="25"/>
     </row>
     <row r="17" s="25" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="30" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" s="26" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A18" s="31" t="s">
+    <row r="18" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
+      <c r="A18" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="30" t="s">
         <v>176</v>
       </c>
       <c r="J18" s="25"/>
@@ -8790,32 +8177,32 @@
       <c r="HW18" s="25"/>
       <c r="HX18" s="25"/>
     </row>
-    <row r="19" s="26" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A19" s="31" t="s">
+    <row r="19" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
+      <c r="A19" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="31" t="s">
         <v>182</v>
       </c>
       <c r="J19" s="25"/>
@@ -9042,32 +8429,32 @@
       <c r="HW19" s="25"/>
       <c r="HX19" s="25"/>
     </row>
-    <row r="20" s="26" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A20" s="31" t="s">
+    <row r="20" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
+      <c r="A20" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="30" t="s">
         <v>187</v>
       </c>
       <c r="J20" s="25"/>
@@ -9294,32 +8681,32 @@
       <c r="HW20" s="25"/>
       <c r="HX20" s="25"/>
     </row>
-    <row r="21" s="26" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
-      <c r="A21" s="31" t="s">
+    <row r="21" s="24" customFormat="1" ht="15.95" customHeight="1" spans="1:232">
+      <c r="A21" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="33" t="s">
         <v>193</v>
       </c>
       <c r="J21" s="25"/>
@@ -9547,44 +8934,44 @@
       <c r="HX21" s="25"/>
     </row>
     <row r="22" s="25" customFormat="1" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="30" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="23" s="24" customFormat="1" ht="24.95" customHeight="1" spans="1:232">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -9810,15 +9197,15 @@
       <c r="HX23" s="25"/>
     </row>
     <row r="24" s="24" customFormat="1" ht="24.95" customHeight="1" spans="1:232">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
@@ -10371,10 +9758,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10437,7 +9824,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" ht="132" spans="1:13">
+    <row r="2" ht="148.5" spans="1:13">
       <c r="A2" s="6" t="s">
         <v>211</v>
       </c>
@@ -10460,7 +9847,7 @@
         <v>217</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>218</v>
@@ -10476,7 +9863,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" ht="132" spans="1:13">
+    <row r="3" ht="148.5" spans="1:13">
       <c r="A3" s="6" t="s">
         <v>221</v>
       </c>
@@ -10499,7 +9886,7 @@
         <v>224</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>218</v>
@@ -10515,7 +9902,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" ht="132" spans="1:13">
+    <row r="4" ht="148.5" spans="1:13">
       <c r="A4" s="6" t="s">
         <v>225</v>
       </c>
@@ -10529,13 +9916,13 @@
         <v>226</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>74</v>
@@ -10554,9 +9941,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" ht="132" spans="1:13">
+    <row r="5" ht="148.5" spans="1:13">
       <c r="A5" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>212</v>
@@ -10565,19 +9952,19 @@
         <v>213</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>218</v>
@@ -10593,9 +9980,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" ht="131.25" customHeight="1" spans="1:13">
+    <row r="6" ht="148.5" spans="1:13">
       <c r="A6" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>212</v>
@@ -10604,16 +9991,16 @@
         <v>213</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>74</v>
@@ -10632,9 +10019,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" ht="132" spans="1:13">
+    <row r="7" ht="148.5" spans="1:13">
       <c r="A7" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>212</v>
@@ -10643,19 +10030,19 @@
         <v>213</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>218</v>
@@ -10671,9 +10058,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" ht="132" spans="1:13">
+    <row r="8" ht="148.5" spans="1:13">
       <c r="A8" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>212</v>
@@ -10682,16 +10069,16 @@
         <v>213</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>74</v>
@@ -10712,7 +10099,7 @@
     </row>
     <row r="9" ht="148.5" spans="1:13">
       <c r="A9" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>212</v>
@@ -10721,16 +10108,16 @@
         <v>213</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>27</v>
@@ -10749,30 +10136,28 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" ht="123.75" customHeight="1" spans="1:13">
+    <row r="10" ht="136.5" customHeight="1" spans="1:13">
       <c r="A10" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>247</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>218</v>
@@ -10788,30 +10173,28 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" ht="123" customHeight="1" spans="1:13">
+    <row r="11" ht="66" spans="1:13">
       <c r="A11" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>247</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>218</v>
@@ -10827,30 +10210,28 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" ht="86.25" customHeight="1" spans="1:13">
+    <row r="12" ht="142.5" customHeight="1" spans="1:13">
       <c r="A12" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>247</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>218</v>
@@ -10866,30 +10247,28 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" ht="148.5" spans="1:13">
+    <row r="13" ht="142.5" customHeight="1" spans="1:13">
       <c r="A13" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>247</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>218</v>
@@ -10905,27 +10284,25 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" ht="148.5" spans="1:13">
+    <row r="14" ht="82.5" spans="1:13">
       <c r="A14" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>213</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>74</v>
@@ -10944,30 +10321,28 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" ht="124.5" customHeight="1" spans="1:13">
+    <row r="15" ht="99" spans="1:13">
       <c r="A15" s="6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>213</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>218</v>
@@ -10983,30 +10358,28 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" ht="148.5" spans="1:13">
+    <row r="16" ht="150" customHeight="1" spans="1:13">
       <c r="A16" s="6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>213</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>218</v>
@@ -11022,1088 +10395,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" ht="102.75" customHeight="1" spans="1:13">
-      <c r="A17" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" ht="151.5" customHeight="1" spans="1:13">
-      <c r="A18" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" ht="148.5" spans="1:13">
-      <c r="A19" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" ht="148.5" spans="1:13">
-      <c r="A20" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" ht="97.5" customHeight="1" spans="1:13">
-      <c r="A21" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" ht="148.5" spans="1:13">
-      <c r="A22" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" ht="148.5" spans="1:13">
-      <c r="A23" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" ht="148.5" spans="1:13">
-      <c r="A24" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" ht="148.5" spans="1:13">
-      <c r="A25" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" ht="148.5" spans="1:13">
-      <c r="A26" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" ht="148.5" spans="1:13">
-      <c r="A27" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" ht="148.5" spans="1:13">
-      <c r="A28" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" ht="148.5" spans="1:13">
-      <c r="A29" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" ht="148.5" spans="1:13">
-      <c r="A30" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" ht="148.5" spans="1:13">
-      <c r="A31" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" ht="148.5" spans="1:13">
-      <c r="A32" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" ht="148.5" spans="1:13">
-      <c r="A33" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" ht="148.5" spans="1:13">
-      <c r="A34" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" ht="148.5" spans="1:13">
-      <c r="A35" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" ht="148.5" spans="1:13">
-      <c r="A36" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" ht="148.5" spans="1:13">
-      <c r="A37" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" ht="136.5" customHeight="1" spans="1:13">
-      <c r="A38" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" ht="82.5" spans="1:13">
-      <c r="A39" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" ht="142.5" customHeight="1" spans="1:13">
-      <c r="A40" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" ht="142.5" customHeight="1" spans="1:13">
-      <c r="A41" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" ht="82.5" spans="1:13">
-      <c r="A42" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" ht="99" spans="1:13">
-      <c r="A43" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="44" ht="150" customHeight="1" spans="1:13">
-      <c r="A44" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="K41">
+  <conditionalFormatting sqref="K13">
     <cfRule type="containsText" dxfId="0" priority="3" stopIfTrue="1" operator="between" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",K41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("fail",K13)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"pass"</formula>
@@ -12112,7 +10407,7 @@
       <formula>"untest"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K40 K42:K44">
+  <conditionalFormatting sqref="K14:K16 K2:K12">
     <cfRule type="containsText" dxfId="0" priority="6" stopIfTrue="1" operator="between" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",K2)))</formula>
     </cfRule>
@@ -12127,10 +10422,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H9 H16 H23 H41 H3:H8 H10:H15 H17:H22 H24:H29 H30:H33 H34:H37 H38:H40 H42:H44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H2:H5 H6:H9 H10:H12 H14:H16">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K41 K3:K15 K16:K22 K23:K29 K30:K33 K34:K37 K38:K40 K42:K44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13 K2:K5 K6:K9 K10:K12 K14:K16">
       <formula1>"fail,pass,untest"</formula1>
     </dataValidation>
   </dataValidations>
